--- a/fastqFiles/fastq_0648.xlsx
+++ b/fastqFiles/fastq_0648.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEF0559-FF21-1641-A64D-809D13491DDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2C9F72-CCBE-D845-95C2-1C96D141E5F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23140" windowHeight="10460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="26">
   <si>
     <t>libraryDate</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>S.GISH</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
   </si>
 </sst>
 </file>
@@ -461,7 +464,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B18 E2:E18"/>
+      <selection activeCell="D19" sqref="D19:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -500,7 +503,7 @@
         <v>648</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -520,7 +523,7 @@
         <v>648</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -540,7 +543,7 @@
         <v>648</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -560,7 +563,7 @@
         <v>648</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -580,7 +583,7 @@
         <v>648</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -600,7 +603,7 @@
         <v>648</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -620,7 +623,7 @@
         <v>648</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -640,7 +643,7 @@
         <v>648</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -660,7 +663,7 @@
         <v>648</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -680,7 +683,7 @@
         <v>648</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -700,7 +703,7 @@
         <v>648</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -720,7 +723,7 @@
         <v>648</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -740,7 +743,7 @@
         <v>648</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -760,7 +763,7 @@
         <v>648</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -780,7 +783,7 @@
         <v>648</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
@@ -800,7 +803,7 @@
         <v>648</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -820,7 +823,7 @@
         <v>648</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>

--- a/fastqFiles/fastq_0648.xlsx
+++ b/fastqFiles/fastq_0648.xlsx
@@ -85,7 +85,7 @@
     <t xml:space="preserve">s_7_withindex_sequence_GACACAG.fastq.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">S_7_withindex_sequence_AGGACCT.fastq.gz</t>
+    <t xml:space="preserve">s_7_withindex_sequence_AGGACCT.fastq.gz</t>
   </si>
   <si>
     <t xml:space="preserve">s_7_withindex_sequence_TTTTCGG.fastq.gz</t>
@@ -216,7 +216,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/fastqFiles/fastq_0648.xlsx
+++ b/fastqFiles/fastq_0648.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">

--- a/fastqFiles/fastq_0648.xlsx
+++ b/fastqFiles/fastq_0648.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="31">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -61,6 +61,9 @@
     <t xml:space="preserve">s_7_withindex_sequence_CATTTAG.fastq.gz</t>
   </si>
   <si>
+    <t xml:space="preserve">[128]</t>
+  </si>
+  <si>
     <t xml:space="preserve">s_7_withindex_sequence_TCCGGGA.fastq.gz</t>
   </si>
   <si>
@@ -95,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">s_7_withindex_sequence_AGGACCT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1,128]</t>
   </si>
   <si>
     <t xml:space="preserve">s_7_withindex_sequence_TTTTCGG.fastq.gz</t>
@@ -207,7 +213,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R17" activeCellId="0" sqref="R17"/>
+      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -266,11 +272,11 @@
       <c r="H2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I2" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>9</v>
       </c>
@@ -287,16 +293,16 @@
         <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I3" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>9</v>
       </c>
@@ -313,16 +319,16 @@
         <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>9</v>
       </c>
@@ -339,16 +345,16 @@
         <v>11</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I5" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>9</v>
       </c>
@@ -365,16 +371,16 @@
         <v>11</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I6" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
@@ -391,16 +397,16 @@
         <v>11</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I7" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>9</v>
       </c>
@@ -417,16 +423,16 @@
         <v>11</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I8" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>9</v>
       </c>
@@ -443,16 +449,16 @@
         <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I9" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>9</v>
       </c>
@@ -469,16 +475,16 @@
         <v>11</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>9</v>
       </c>
@@ -495,16 +501,16 @@
         <v>11</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I11" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>9</v>
       </c>
@@ -521,16 +527,16 @@
         <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I12" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>9</v>
       </c>
@@ -547,13 +553,13 @@
         <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I13" s="0" t="n">
-        <v>128</v>
+      <c r="I13" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -573,16 +579,16 @@
         <v>11</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="0" t="n">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I14" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>9</v>
       </c>
@@ -599,16 +605,16 @@
         <v>11</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I15" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I15" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>9</v>
       </c>
@@ -625,16 +631,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I16" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I16" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>9</v>
       </c>
@@ -651,16 +657,16 @@
         <v>11</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I17" s="0" t="n">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I17" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>9</v>
       </c>
@@ -677,13 +683,13 @@
         <v>11</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="0" t="n">
-        <v>128</v>
+      <c r="I18" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
